--- a/reports/TS Advanced Validation.xlsx
+++ b/reports/TS Advanced Validation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">Método</t>
   </si>
@@ -92,10 +92,7 @@
     <t xml:space="preserve">Block CV (1-block)</t>
   </si>
   <si>
-    <t xml:space="preserve">Combinatorial Purged (Block)-CV (1-block)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N muito maior...múltiplos cenários de treino/teste</t>
+    <t xml:space="preserve">Combinatorial Purged (Block)-CV (20 eras)</t>
   </si>
   <si>
     <t xml:space="preserve">1 block = 10 eras</t>
@@ -171,7 +168,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +179,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
         <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -322,7 +313,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,8 +404,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -612,7 +603,7 @@
       </c>
       <c r="M6" s="9" t="n">
         <f aca="false">RANK(K6,K:K,1)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +673,7 @@
       </c>
       <c r="M8" s="9" t="n">
         <f aca="false">RANK(K8,K:K,1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,7 +1045,7 @@
       </c>
       <c r="M22" s="9" t="n">
         <f aca="false">RANK(K22,K:K,1)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,17 +1062,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>110</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>0.00677444565995006</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <f aca="false">0.0292806315505603+1</f>
-        <v>1.02928063155056</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>0.0641640851102449</v>
+        <v>66</v>
+      </c>
+      <c r="C24" s="13" t="n">
+        <v>0.03186736</v>
+      </c>
+      <c r="D24" s="13" t="n">
+        <v>0.05012818</v>
+      </c>
+      <c r="E24" s="13" t="n">
+        <v>0.06538614</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="8" t="n">
@@ -1090,35 +1080,33 @@
       </c>
       <c r="H24" s="9" t="n">
         <f aca="false">AND(C24&lt;G24, E24&gt;G24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="10" t="n">
         <f aca="false">D24-G24</f>
-        <v>1.00416162488337</v>
+        <v>0.0250091733328073</v>
       </c>
       <c r="K24" s="11" t="n">
         <f aca="false">ABS(J24)</f>
-        <v>1.00416162488337</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0250091733328073</v>
+      </c>
+      <c r="L24" s="5"/>
       <c r="M24" s="9" t="n">
         <f aca="false">RANK(K24,K:K,1)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="10"/>
       <c r="K25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="10"/>
@@ -1134,7 +1122,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6" t="n">
         <v>22</v>
@@ -1153,7 +1141,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6" t="n">
         <v>119</v>
@@ -1172,7 +1160,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="6" t="n">
         <v>118</v>
@@ -1191,7 +1179,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="13" t="n">
@@ -9034,13 +9022,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/reports/TS Advanced Validation.xlsx
+++ b/reports/TS Advanced Validation.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t xml:space="preserve">Método</t>
   </si>
@@ -114,6 +115,18 @@
   </si>
   <si>
     <t xml:space="preserve">Slider 11 eras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Retrain Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block CV 20 eras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinatorial Purged CV (20 eras)</t>
   </si>
 </sst>
 </file>
@@ -313,15 +326,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,11 +417,11 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.88"/>
@@ -478,11 +491,11 @@
       </c>
       <c r="J2" s="10" t="n">
         <f aca="false">D2-G2</f>
-        <v>0.0207170030035989</v>
+        <v>0.020717003003599</v>
       </c>
       <c r="K2" s="11" t="n">
         <f aca="false">ABS(J2)</f>
-        <v>0.0207170030035989</v>
+        <v>0.020717003003599</v>
       </c>
       <c r="M2" s="9" t="n">
         <f aca="false">RANK(K2,K:K,1)</f>
@@ -591,19 +604,22 @@
         <v>0.05216731</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="n">
+        <f aca="false">C$31</f>
+        <v>0.0251190066671927</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="J6" s="10" t="n">
         <f aca="false">D6-G6</f>
-        <v>0.05067201</v>
+        <v>0.0255530033328073</v>
       </c>
       <c r="K6" s="11" t="n">
         <f aca="false">ABS(J6)</f>
-        <v>0.05067201</v>
+        <v>0.0255530033328073</v>
       </c>
       <c r="M6" s="9" t="n">
         <f aca="false">RANK(K6,K:K,1)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,19 +677,22 @@
         <v>0.06011972</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8" t="n">
+        <f aca="false">C$31</f>
+        <v>0.0251190066671927</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="J8" s="10" t="n">
         <f aca="false">D8-G8</f>
-        <v>0.051216045</v>
+        <v>0.0260970383328073</v>
       </c>
       <c r="K8" s="11" t="n">
         <f aca="false">ABS(J8)</f>
-        <v>0.051216045</v>
+        <v>0.0260970383328073</v>
       </c>
       <c r="M8" s="9" t="n">
         <f aca="false">RANK(K8,K:K,1)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,11 +884,11 @@
       </c>
       <c r="J16" s="10" t="n">
         <f aca="false">D16-G16</f>
-        <v>0.00663230333280725</v>
+        <v>0.0066323033328073</v>
       </c>
       <c r="K16" s="11" t="n">
         <f aca="false">ABS(J16)</f>
-        <v>0.00663230333280725</v>
+        <v>0.0066323033328073</v>
       </c>
       <c r="M16" s="9" t="n">
         <f aca="false">RANK(K16,K:K,1)</f>
@@ -903,11 +922,11 @@
       </c>
       <c r="J17" s="17" t="n">
         <f aca="false">D17-G17</f>
-        <v>0.00374685333280726</v>
+        <v>0.0037468533328073</v>
       </c>
       <c r="K17" s="21" t="n">
         <f aca="false">ABS(J17)</f>
-        <v>0.00374685333280726</v>
+        <v>0.0037468533328073</v>
       </c>
       <c r="M17" s="19" t="n">
         <f aca="false">RANK(K17,K:K,1)</f>
@@ -941,11 +960,11 @@
       </c>
       <c r="J18" s="10" t="n">
         <f aca="false">D18-G18</f>
-        <v>0.00889966333280726</v>
+        <v>0.0088996633328073</v>
       </c>
       <c r="K18" s="11" t="n">
         <f aca="false">ABS(J18)</f>
-        <v>0.00889966333280726</v>
+        <v>0.0088996633328073</v>
       </c>
       <c r="M18" s="9" t="n">
         <f aca="false">RANK(K18,K:K,1)</f>
@@ -999,11 +1018,11 @@
       </c>
       <c r="J21" s="10" t="n">
         <f aca="false">D21-G21</f>
-        <v>0.0209416574271723</v>
+        <v>0.0209416574271724</v>
       </c>
       <c r="K21" s="11" t="n">
         <f aca="false">ABS(J21)</f>
-        <v>0.0209416574271723</v>
+        <v>0.0209416574271724</v>
       </c>
       <c r="M21" s="9" t="n">
         <f aca="false">RANK(K21,K:K,1)</f>
@@ -1045,7 +1064,7 @@
       </c>
       <c r="M22" s="9" t="n">
         <f aca="false">RANK(K22,K:K,1)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,7 +1077,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="n">
@@ -9014,7 +9033,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.05"/>
@@ -9032,10 +9051,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="n">
+      <c r="A2" s="24" t="n">
         <v>0.0622031431907289</v>
       </c>
-      <c r="B2" s="25" t="n">
+      <c r="B2" s="24" t="n">
         <v>0.04258352</v>
       </c>
       <c r="C2" s="13" t="n">
@@ -9043,10 +9062,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="n">
+      <c r="A3" s="25" t="n">
         <v>0.0671306800978647</v>
       </c>
-      <c r="B3" s="25" t="n">
+      <c r="B3" s="24" t="n">
         <v>0.03968692</v>
       </c>
       <c r="C3" s="13" t="n">
@@ -9054,10 +9073,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="24" t="n">
         <v>0.0651536659445326</v>
       </c>
-      <c r="B4" s="25" t="n">
+      <c r="B4" s="24" t="n">
         <v>0.05716924</v>
       </c>
       <c r="C4" s="13" t="n">
@@ -9065,10 +9084,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="n">
+      <c r="A5" s="24" t="n">
         <v>0.0587280423470568</v>
       </c>
-      <c r="B5" s="25" t="n">
+      <c r="B5" s="24" t="n">
         <v>0.0432516</v>
       </c>
       <c r="C5" s="13" t="n">
@@ -9076,10 +9095,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="n">
+      <c r="A6" s="24" t="n">
         <v>0.0564288263946572</v>
       </c>
-      <c r="B6" s="25" t="n">
+      <c r="B6" s="24" t="n">
         <v>0.04439494</v>
       </c>
       <c r="C6" s="13" t="n">
@@ -9087,10 +9106,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="n">
+      <c r="A7" s="24" t="n">
         <v>0.0369998074232355</v>
       </c>
-      <c r="B7" s="25" t="n">
+      <c r="B7" s="24" t="n">
         <v>0.03375858</v>
       </c>
       <c r="C7" s="13" t="n">
@@ -9098,10 +9117,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="n">
+      <c r="A8" s="24" t="n">
         <v>0.0290568398541405</v>
       </c>
-      <c r="B8" s="25" t="n">
+      <c r="B8" s="24" t="n">
         <v>0.02376774</v>
       </c>
       <c r="C8" s="13" t="n">
@@ -9109,10 +9128,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="n">
+      <c r="A9" s="24" t="n">
         <v>0.053840631323045</v>
       </c>
-      <c r="B9" s="25" t="n">
+      <c r="B9" s="24" t="n">
         <v>0.05053726</v>
       </c>
       <c r="C9" s="13" t="n">
@@ -9120,10 +9139,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="n">
+      <c r="A10" s="24" t="n">
         <v>0.0385368515353812</v>
       </c>
-      <c r="B10" s="25" t="n">
+      <c r="B10" s="24" t="n">
         <v>0.05126262</v>
       </c>
       <c r="C10" s="13" t="n">
@@ -9131,10 +9150,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="24" t="n">
         <v>0.0627269789055794</v>
       </c>
-      <c r="B11" s="25" t="n">
+      <c r="B11" s="24" t="n">
         <v>0.05874339</v>
       </c>
       <c r="C11" s="13" t="n">
@@ -9142,10 +9161,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="n">
+      <c r="A12" s="24" t="n">
         <v>0.0434332815677736</v>
       </c>
-      <c r="B12" s="25" t="n">
+      <c r="B12" s="24" t="n">
         <v>0.03691207</v>
       </c>
       <c r="C12" s="13" t="n">
@@ -9153,8 +9172,409 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="n">
+      <c r="A13" s="24" t="n">
         <v>0.0382100199313431</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.81"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>0.04584</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.02072</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="n">
+        <v>0.04674</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.02162</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>0.04906007</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.02394</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="26" t="n">
+        <v>0.05067201</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.02555</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>0.0488238</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.0237</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" s="26" t="n">
+        <v>0.051216045</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.0261</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>0.04239507</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.01728</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="26" t="n">
+        <v>0.04149159</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.01637</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0.04325159</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.01813</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="26" t="n">
+        <v>0.03175131</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.00663</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>0.02886586</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26" t="n">
+        <v>0.03401867</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="26" t="n">
+        <v>0.04606066</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.02094</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="26" t="n">
+        <v>0.05513473</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.03002</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="C16" s="26" t="n">
+        <v>0.05012818</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.02501</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/reports/TS Advanced Validation.xlsx
+++ b/reports/TS Advanced Validation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t xml:space="preserve">Método</t>
   </si>
@@ -120,7 +120,7 @@
     <t xml:space="preserve">Median CV</t>
   </si>
   <si>
-    <t xml:space="preserve">Full Retrain Test</t>
+    <t xml:space="preserve">Full Retrain</t>
   </si>
   <si>
     <t xml:space="preserve">Block CV 20 eras</t>
@@ -128,12 +128,57 @@
   <si>
     <t xml:space="preserve">Combinatorial Purged CV (20 eras)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Adj. Sharpe CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj. Sharpe Test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corr Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV&amp;Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgb_slider20_bayesian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgb_exp20_bayesian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgb_slider20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgb_exp20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lgbm_slider20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lgbm_exp20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgb_ranker_slider20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgb_ranker_exp20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omp_exp20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000"/>
@@ -141,6 +186,7 @@
     <numFmt numFmtId="168" formatCode="General"/>
     <numFmt numFmtId="169" formatCode="0.00000000"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -229,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,6 +384,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,11 +467,11 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.88"/>
@@ -9033,7 +9083,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.05"/>
@@ -9192,20 +9242,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.81"/>
   </cols>
   <sheetData>
@@ -9220,15 +9269,12 @@
         <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9243,15 +9289,12 @@
         <v>0.04584</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>7</v>
+        <v>0.02512</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.02072</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.02072</v>
-      </c>
-      <c r="G2" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9266,15 +9309,12 @@
         <v>0.04674</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>9</v>
+        <v>0.02512</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.02162</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.02162</v>
-      </c>
-      <c r="G3" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -9289,15 +9329,12 @@
         <v>0.04906007</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>11</v>
+        <v>0.02512</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.02394</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.02394</v>
-      </c>
-      <c r="G4" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -9312,15 +9349,12 @@
         <v>0.05067201</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>14</v>
+        <v>0.02512</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.02555</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.02555</v>
-      </c>
-      <c r="G5" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -9335,15 +9369,12 @@
         <v>0.0488238</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
+        <v>0.02512</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.0237</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.0237</v>
-      </c>
-      <c r="G6" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -9358,15 +9389,12 @@
         <v>0.051216045</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>15</v>
+        <v>0.02512</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.0261</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="G7" s="0" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9381,15 +9409,12 @@
         <v>0.04239507</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>0.02512</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.01728</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.01728</v>
-      </c>
-      <c r="G8" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9404,15 +9429,12 @@
         <v>0.04149159</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>4</v>
+        <v>0.02512</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.01637</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.01637</v>
-      </c>
-      <c r="G9" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9427,15 +9449,12 @@
         <v>0.04325159</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>6</v>
+        <v>0.02512</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.01813</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.01813</v>
-      </c>
-      <c r="G10" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9450,15 +9469,12 @@
         <v>0.03175131</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2</v>
+        <v>0.02512</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.00663</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.00663</v>
-      </c>
-      <c r="G11" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9473,15 +9489,12 @@
         <v>0.02886586</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
+        <v>0.02512</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.00375</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.00375</v>
-      </c>
-      <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9496,15 +9509,12 @@
         <v>0.03401867</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3</v>
+        <v>0.02512</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.0089</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="G13" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9519,15 +9529,12 @@
         <v>0.04606066</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>8</v>
+        <v>0.02512</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.02094</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.02094</v>
-      </c>
-      <c r="G14" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9542,15 +9549,12 @@
         <v>0.05513473</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>13</v>
+        <v>0.02512</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.02512</v>
+        <v>0.03002</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.03002</v>
-      </c>
-      <c r="G15" s="0" t="n">
         <v>15</v>
       </c>
     </row>
@@ -9565,16 +9569,240 @@
         <v>0.05012818</v>
       </c>
       <c r="D16" s="0" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.02501</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>0.02512</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0.02501</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>12</v>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="27" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="C23" s="27" t="n">
+        <v>0.2615</v>
+      </c>
+      <c r="D23" s="27" t="n">
+        <v>0.0188</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="27" t="n">
+        <v>1.1167</v>
+      </c>
+      <c r="C24" s="27" t="n">
+        <v>0.4868</v>
+      </c>
+      <c r="D24" s="27" t="n">
+        <v>0.0217</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="27" t="n">
+        <v>0.7094</v>
+      </c>
+      <c r="C25" s="27" t="n">
+        <v>0.3133</v>
+      </c>
+      <c r="D25" s="27" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="27" t="n">
+        <v>1.0161</v>
+      </c>
+      <c r="C26" s="27" t="n">
+        <v>0.5124</v>
+      </c>
+      <c r="D26" s="27" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="27" t="n">
+        <v>0.7393</v>
+      </c>
+      <c r="C27" s="27" t="n">
+        <v>0.3244</v>
+      </c>
+      <c r="D27" s="27" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="27" t="n">
+        <v>1.0405</v>
+      </c>
+      <c r="C28" s="27" t="n">
+        <v>0.5084</v>
+      </c>
+      <c r="D28" s="27" t="n">
+        <v>0.02404</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="27" t="n">
+        <v>0.7054</v>
+      </c>
+      <c r="C29" s="27" t="n">
+        <v>0.2355</v>
+      </c>
+      <c r="D29" s="27" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="27" t="n">
+        <v>0.9441</v>
+      </c>
+      <c r="C30" s="27" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D30" s="27" t="n">
+        <v>0.20704</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="27" t="n">
+        <v>0.6932</v>
+      </c>
+      <c r="C31" s="27" t="n">
+        <v>0.1386</v>
+      </c>
+      <c r="D31" s="27" t="n">
+        <v>0.0147</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
